--- a/6SEM/AGO005-Gestão de Projetos/JINDER/Plano de Comunicação do Projeto - JINDER.xlsx
+++ b/6SEM/AGO005-Gestão de Projetos/JINDER/Plano de Comunicação do Projeto - JINDER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fernanda Reis\fatec\6SEM\AGO005-Gestão de Projetos\JINDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC70A13E-D18D-4E5B-8F1E-D4BC330B7578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E581B068-95AD-4D71-A0D6-0A5159D07B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ECFD472F-0084-4C82-B139-A372E69F4568}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>PLANO DE COMUNICAÇÃO</t>
   </si>
@@ -174,6 +174,57 @@
   </si>
   <si>
     <t>Estrutura de Posicionamento e Propagação (Marketing)</t>
+  </si>
+  <si>
+    <t>Designer, Desenvolvedor Front-end</t>
+  </si>
+  <si>
+    <t>Investidores</t>
+  </si>
+  <si>
+    <t>Mensal</t>
+  </si>
+  <si>
+    <t>Única</t>
+  </si>
+  <si>
+    <t>Semanal</t>
+  </si>
+  <si>
+    <t>Candidatos</t>
+  </si>
+  <si>
+    <t>Empresas</t>
+  </si>
+  <si>
+    <t>Público geral</t>
+  </si>
+  <si>
+    <t>Diária</t>
+  </si>
+  <si>
+    <t>Presencial</t>
+  </si>
+  <si>
+    <t>Ambiente Virtual</t>
+  </si>
+  <si>
+    <t>E-mail, impresso, propaganda</t>
+  </si>
+  <si>
+    <t>Início do projeto</t>
+  </si>
+  <si>
+    <t>Ao término do projeto</t>
+  </si>
+  <si>
+    <t>Uma semana após início do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaborar banners, propagandas em vídeo e anúncios </t>
+  </si>
+  <si>
+    <t>Em português, inglês e espanhol</t>
   </si>
 </sst>
 </file>
@@ -250,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -261,9 +312,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -271,11 +319,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B05B51-0F98-408B-A4E0-6AB10AB98C70}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,26 +662,25 @@
     <col min="4" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -640,47 +696,47 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -688,201 +744,275 @@
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="G6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="G7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7" t="s">
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="G8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="G9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="G10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="G11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="G12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="114" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="D13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="8"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
+      <c r="B20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/6SEM/AGO005-Gestão de Projetos/JINDER/Plano de Comunicação do Projeto - JINDER.xlsx
+++ b/6SEM/AGO005-Gestão de Projetos/JINDER/Plano de Comunicação do Projeto - JINDER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fernanda Reis\fatec\6SEM\AGO005-Gestão de Projetos\JINDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E581B068-95AD-4D71-A0D6-0A5159D07B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8995DD02-3FA4-46F8-9E6A-057808E86C20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ECFD472F-0084-4C82-B139-A372E69F4568}"/>
   </bookViews>
@@ -301,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -313,26 +313,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,10 +652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B05B51-0F98-408B-A4E0-6AB10AB98C70}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -669,18 +676,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -696,323 +703,323 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="7"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="114" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="6" t="s">
+      <c r="I13" s="15"/>
+      <c r="J13" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1021,6 +1028,6 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>